--- a/src/test/java/resources/excel/testdata.xlsx
+++ b/src/test/java/resources/excel/testdata.xlsx
@@ -1,32 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utyfdfrthby08/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utyfd\FirstFullProject\src\test\java\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F824C02-8253-9649-B709-18B95B0E1B38}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BE5291-AA7B-4818-9902-2C15652B874C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16640" xr2:uid="{C4D322E9-CAE4-3D4F-B163-E47158775751}"/>
+    <workbookView xWindow="7395" yWindow="1815" windowWidth="28800" windowHeight="11385" xr2:uid="{C4D322E9-CAE4-3D4F-B163-E47158775751}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>Vakerin</t>
+  </si>
+  <si>
+    <t>alertText</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>49035b</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,8 +84,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,12 +403,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3E9512-46CB-BD40-B70A-64A1E328912C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/resources/excel/testdata.xlsx
+++ b/src/test/java/resources/excel/testdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utyfd\FirstFullProject\src\test\java\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BE5291-AA7B-4818-9902-2C15652B874C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE4724A-116D-4596-9C08-6D204D106D6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="1815" windowWidth="28800" windowHeight="11385" xr2:uid="{C4D322E9-CAE4-3D4F-B163-E47158775751}"/>
+    <workbookView xWindow="7395" yWindow="1815" windowWidth="28800" windowHeight="11385" activeTab="1" xr2:uid="{C4D322E9-CAE4-3D4F-B163-E47158775751}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>firstName</t>
   </si>
@@ -49,6 +50,18 @@
   </si>
   <si>
     <t>49035b</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Eugene Vakerin</t>
+  </si>
+  <si>
+    <t>Rupee</t>
   </si>
 </sst>
 </file>
@@ -405,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3E9512-46CB-BD40-B70A-64A1E328912C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -445,4 +458,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7C0181-CD25-4E41-BED3-025943B91CB4}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>